--- a/biology/Botanique/Forêt_de_Meerdael/Forêt_de_Meerdael.xlsx
+++ b/biology/Botanique/Forêt_de_Meerdael/Forêt_de_Meerdael.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Meerdael</t>
+          <t>Forêt_de_Meerdael</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Carte interactive de la forêt de Meerdael
-La forêt de Meerdael[1],[2],[3],[4]  (en néerlandais : Meerdaalwoud) ou bois de Meerdael[5] (en néerlandais : Meerdaalbos) est une forêt de 1 255 hectares située une dizaine de kilomètres au sud de Louvain, à la frontière des provinces belges de Brabant flamand et Brabant wallon.
-Tout comme la forêt de Soignes, la forêt de Meerdael fait partie de la forêt Charbonnière qui recouvrait autrefois la moyenne-Belgique[6]. On y observe surtout des hêtraies et des chênaies-charmaies acidophiles avec ici et là des éléments d'aulnaies-frênaies rivulaires, de chênaies-frênaies sur sols hydromorphes et d'autres formations encore.
+La forêt de Meerdael  (en néerlandais : Meerdaalwoud) ou bois de Meerdael (en néerlandais : Meerdaalbos) est une forêt de 1 255 hectares située une dizaine de kilomètres au sud de Louvain, à la frontière des provinces belges de Brabant flamand et Brabant wallon.
+Tout comme la forêt de Soignes, la forêt de Meerdael fait partie de la forêt Charbonnière qui recouvrait autrefois la moyenne-Belgique. On y observe surtout des hêtraies et des chênaies-charmaies acidophiles avec ici et là des éléments d'aulnaies-frênaies rivulaires, de chênaies-frênaies sur sols hydromorphes et d'autres formations encore.
 Il est accessible en transport en commun depuis la gare de Weert-Saint-Georges située à la limite ouest de la forêt, ainsi que via le bus TEC 18 Leuven-Jodoigne, arrêt HAASRODE Weertse Dreef (situé sur la N25 qui coupe en deux le bois de Meerdaal) et avec bus 337 de De Lijn à partir de Wavre ou Hamme-Mille, arrêt Sint-Joris-Weert Dorpstraat.
 </t>
         </is>
